--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/47.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/47.xlsx
@@ -479,13 +479,13 @@
         <v>1.716350267000394</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.771740879372825</v>
+        <v>-8.651841569948296</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.022072794189037</v>
+        <v>-3.078880296219286</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.463473058902747</v>
+        <v>-5.45454410836469</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>2.245101578229126</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.026242154313136</v>
+        <v>-8.897413894350553</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.105601686319249</v>
+        <v>-3.175933537185002</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.398980375104404</v>
+        <v>-5.385403657057535</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>2.605757489211053</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.840229898891772</v>
+        <v>-9.71536860669023</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.989590790838715</v>
+        <v>-3.058286103849251</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.26551743993585</v>
+        <v>-5.259324780691712</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>2.718170440531765</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.60578921525886</v>
+        <v>-10.48075772312038</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.894763241356093</v>
+        <v>-2.963039600675694</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.48275802098861</v>
+        <v>-5.465410719723323</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>2.613561219484037</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.38235915831584</v>
+        <v>-11.26147792617819</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.746204881011027</v>
+        <v>-2.812648317932787</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.036258124874384</v>
+        <v>-5.01877990058068</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>2.317252561126216</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.04245997529283</v>
+        <v>-11.92075392807615</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.717990968387107</v>
+        <v>-2.778621422847141</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.164078277518156</v>
+        <v>-5.160360063511106</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>1.88286740299389</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.54533532744353</v>
+        <v>-12.41750208249691</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.594543644892472</v>
+        <v>-2.659782589952793</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.723286625442922</v>
+        <v>-4.718743596356843</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>1.371369280452135</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.51125924650039</v>
+        <v>-13.39651830439551</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.346182659984929</v>
+        <v>-2.404312484602193</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.633578166371415</v>
+        <v>-4.633695997096991</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.8533021769102169</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.25553047844684</v>
+        <v>-14.14103829009594</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.326256175059822</v>
+        <v>-2.381348585417805</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.24306095720841</v>
+        <v>-4.266744933049092</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3931192224944032</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.95185769738688</v>
+        <v>-14.84058621553505</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.149235148336843</v>
+        <v>-2.204340650997668</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.031711912434426</v>
+        <v>-4.052855981523813</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.04701081047387377</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.61098968395358</v>
+        <v>-15.50358043144006</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.143173412121124</v>
+        <v>-2.188708441404648</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.517406979902901</v>
+        <v>-3.533209389432864</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1498798806280433</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.5780919102662</v>
+        <v>-16.47577556355811</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.973248413538362</v>
+        <v>-2.025002286671705</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.879641631573899</v>
+        <v>-2.894278826150949</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1774921558006345</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.21043704521873</v>
+        <v>-17.11622483396967</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.70184497562938</v>
+        <v>-1.74105642264035</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.500567095094563</v>
+        <v>-2.531700591252187</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.04082385025027154</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.1117897266602</v>
+        <v>-18.02335122096434</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.534721729854747</v>
+        <v>-1.574483053585069</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.909855483178724</v>
+        <v>-1.935568765959874</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2362802629730065</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.02272597378182</v>
+        <v>-18.94061105035851</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.376815465280689</v>
+        <v>-1.407831130712738</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.53383145326151</v>
+        <v>-1.583150158066292</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6117619089244158</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.80644431419038</v>
+        <v>-19.73201457253517</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.140499398987533</v>
+        <v>-1.163856067257173</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.005334464449553</v>
+        <v>-1.05203470868599</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.030407910271924</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.78924421161023</v>
+        <v>-20.71802208415124</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.043904388621278</v>
+        <v>-1.067221779982392</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6398759229256119</v>
+        <v>-0.6951254409176959</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.436988899826225</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.62678500900113</v>
+        <v>-21.5604463105021</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8947437823454933</v>
+        <v>-0.9176684046213557</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2663787074568507</v>
+        <v>-0.3230291018529994</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.779983745485567</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.27937084414697</v>
+        <v>-22.21109448482737</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6496165962398561</v>
+        <v>-0.6613342072832009</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09922384939834979</v>
+        <v>0.04867446812644544</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.02007784069405</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.90320598225237</v>
+        <v>-22.83981305189274</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3527093523951924</v>
+        <v>-0.3595566267814151</v>
       </c>
       <c r="G21" t="n">
-        <v>0.424214082838516</v>
+        <v>0.3653510892621156</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.132228489012289</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.53281482591098</v>
+        <v>-23.47054783359573</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.09180594136527527</v>
+        <v>-0.08893872704293726</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3934078942519346</v>
+        <v>0.3289283027564336</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.107022057621876</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.03947385358294</v>
+        <v>-23.97966821420193</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02425732332662632</v>
+        <v>0.02340632364191413</v>
       </c>
       <c r="G23" t="n">
-        <v>0.668058223265664</v>
+        <v>0.5892032832499479</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.950753015923091</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.4166107292417</v>
+        <v>-24.36909876222908</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003388192596914972</v>
+        <v>0.007721744837526301</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5916384515785089</v>
+        <v>0.5198271704916415</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.683444635711303</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.68640381390115</v>
+        <v>-24.63804084720381</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2890491483005361</v>
+        <v>0.2971009145481976</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5800648558664231</v>
+        <v>0.5105578200796994</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.336658055890414</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.69610521030687</v>
+        <v>-24.65270422638654</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3054799883669023</v>
+        <v>0.3109263863490603</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4286916504103863</v>
+        <v>0.3507008023822241</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9494728090915467</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.65864813187669</v>
+        <v>-24.63144232657158</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1239421171635286</v>
+        <v>0.1286815307922334</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4042745056105672</v>
+        <v>0.3257075962573691</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.5650867968104752</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.76190712438938</v>
+        <v>-24.74504423832924</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2439854419193149</v>
+        <v>0.2442603802789912</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1162569353954354</v>
+        <v>0.03932656389745303</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.2279636738079714</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.80221832483906</v>
+        <v>-24.79158737493157</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2062010559180935</v>
+        <v>0.1907652308676984</v>
       </c>
       <c r="G29" t="n">
-        <v>0.01243497386054769</v>
+        <v>-0.0547547243231905</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.0246503914467415</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.57184616403605</v>
+        <v>-24.5630481365264</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06871878377712805</v>
+        <v>0.06815581475493383</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1887806285139403</v>
+        <v>-0.2480232988727507</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.1586203610764123</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.10528885996829</v>
+        <v>-24.09340104898801</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07314398213763146</v>
+        <v>0.06650618459687635</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6526671028019783</v>
+        <v>-0.7090163742327673</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.1543866995893048</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.18271673897426</v>
+        <v>-24.17901161727005</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1365500048001108</v>
+        <v>0.1311690683321614</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7228287537307883</v>
+        <v>-0.7624067852213262</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.002027126268584787</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.75986154179219</v>
+        <v>-23.75783223485173</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05329605102957474</v>
+        <v>0.04693319184849588</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.188404135085409</v>
+        <v>-1.224041383420587</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.297033680990554</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.19949788786348</v>
+        <v>-23.19342305934492</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09612640130304487</v>
+        <v>-0.1084200736714257</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.269956089486521</v>
+        <v>-1.296140695169973</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7260128249309854</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.84973701744676</v>
+        <v>-22.85177941669007</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.290691113833936</v>
+        <v>-0.3006805409021729</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.296507279649541</v>
+        <v>-1.316970548991159</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.267049069564312</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.12328440966791</v>
+        <v>-22.12514351667144</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4149894370132833</v>
+        <v>-0.4324676613069875</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.50553898682054</v>
+        <v>-1.519102612564568</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.889481258618656</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.32359345979244</v>
+        <v>-21.31427174016913</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3488471230568831</v>
+        <v>-0.3673596392750838</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.619101621669671</v>
+        <v>-1.645993211706577</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.566083456329098</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.94728139921271</v>
+        <v>-20.9366111723967</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4131303300097582</v>
+        <v>-0.4215879576455132</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.866637791498186</v>
+        <v>-1.895558688475559</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>3.267664149386106</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.28995615043817</v>
+        <v>-20.28271610696669</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2575544953415273</v>
+        <v>-0.2755825963545841</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.027358901183216</v>
+        <v>-2.046329648000877</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>3.964710677639895</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.97393414444458</v>
+        <v>-19.97711557403512</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5399292830318752</v>
+        <v>-0.5572242150857952</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.246798989113386</v>
+        <v>-2.272067133597917</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.636052989123426</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.4519571224478</v>
+        <v>-19.44092031115223</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2636293238600882</v>
+        <v>-0.2807278713713824</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.101147119999184</v>
+        <v>-2.115312991673931</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.25637646678176</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.8910959610111</v>
+        <v>-18.88799308523761</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.01297718595524261</v>
+        <v>-0.02091112147732861</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.08594695639994</v>
+        <v>-2.08700743293012</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.811125707240163</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.99724516909794</v>
+        <v>-17.98489912751819</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.02037433706081784</v>
+        <v>-0.03104456387682459</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.980383718587102</v>
+        <v>-1.980017134107534</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>6.285436048542755</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.65909717130184</v>
+        <v>-17.65190949704173</v>
       </c>
       <c r="F44" t="n">
-        <v>0.02991319815425198</v>
+        <v>0.01806466408248989</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.186522026830079</v>
+        <v>-2.183000197365655</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>6.66908134145458</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.14686082261931</v>
+        <v>-17.14222614741334</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.002869928161430088</v>
+        <v>-0.01268915529272464</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.23226653295907</v>
+        <v>-2.223049551758495</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>6.960002605965117</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.76961920853781</v>
+        <v>-16.76578316380519</v>
       </c>
       <c r="F46" t="n">
-        <v>0.01671615688979211</v>
+        <v>0.004435576824253057</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.186561303738604</v>
+        <v>-2.160599267203462</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>7.154888968365297</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.10934819162388</v>
+        <v>-16.0908094908</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03185085897482744</v>
+        <v>0.01179345102130311</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.482080763482045</v>
+        <v>-2.453722835526867</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>7.259796673617243</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.451224312376</v>
+        <v>-15.43946742442413</v>
       </c>
       <c r="F48" t="n">
-        <v>0.005482961051591143</v>
+        <v>-0.01885562993117762</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.420023248012264</v>
+        <v>-2.388169675198344</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>7.280446131032948</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.92174540085091</v>
+        <v>-14.90321979232987</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1479010313638873</v>
+        <v>0.1344421440425929</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.618109790007579</v>
+        <v>-2.568241208483445</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>7.222376867199823</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.22839013465594</v>
+        <v>-14.19995365288371</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2961189918350681</v>
+        <v>0.2768078451435222</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.551417599331827</v>
+        <v>-2.480470410232513</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>7.097091685305204</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.45458266749856</v>
+        <v>-13.43236502957615</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2909082553040612</v>
+        <v>0.2759306608531265</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.630154708621967</v>
+        <v>-2.548524200403805</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>6.910477103612354</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.86148825646553</v>
+        <v>-12.84572512384409</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3729708095160001</v>
+        <v>0.3588049378412526</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.641715212031211</v>
+        <v>-2.561328472583013</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>6.6723331326992</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.20535440724959</v>
+        <v>-12.19291671954995</v>
       </c>
       <c r="F53" t="n">
-        <v>0.422302606623624</v>
+        <v>0.4101005803751353</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.667166648755527</v>
+        <v>-2.580273034794991</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>6.390731476293581</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.83782728187665</v>
+        <v>-11.81580602849687</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3106252633837006</v>
+        <v>0.298370867923845</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.776919423477716</v>
+        <v>-2.686844379926641</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>6.068171010496515</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.37693894493937</v>
+        <v>-11.36177805824865</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06298435513245204</v>
+        <v>0.05042883670723673</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.249957417452121</v>
+        <v>-3.153401683994391</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>5.713331526686808</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.94072959885874</v>
+        <v>-10.91175633267</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1490793386196426</v>
+        <v>0.1419047566623768</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.320249991409348</v>
+        <v>-3.224794011390324</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>5.3272747644934</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.18146768015852</v>
+        <v>-10.15562347434895</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0879775612573071</v>
+        <v>0.07603738106565293</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.678468489461815</v>
+        <v>-3.592373505974625</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>4.91587753683627</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.875552931958749</v>
+        <v>-9.85599303151321</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.08121426836631888</v>
+        <v>-0.1001195536697713</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.717274075084691</v>
+        <v>-3.624083063457285</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>4.485758854168819</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.33338757898003</v>
+        <v>-9.310188018344492</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002759762060512121</v>
+        <v>-0.01012306393574633</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.994922541449176</v>
+        <v>-3.910176065154683</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>4.040631525106812</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.974082419791701</v>
+        <v>-8.941443308807278</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1353247560111727</v>
+        <v>-0.1456022137419277</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.909573819223964</v>
+        <v>-3.819983190878032</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>3.593887670709819</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.43842394132532</v>
+        <v>-8.411061028386113</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1538110876236899</v>
+        <v>-0.1705037737468907</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.309268732679019</v>
+        <v>-4.223003549254885</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>3.153259876563066</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.937551711509406</v>
+        <v>-7.900002986959335</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1001326459726131</v>
+        <v>-0.1134475179626485</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.273566022829632</v>
+        <v>-4.176682981800859</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>2.734086633452257</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.45661905892144</v>
+        <v>-7.420772333740794</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1515592115349131</v>
+        <v>-0.1709358197406676</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.274207545668877</v>
+        <v>-4.179772765271506</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.351228342991329</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.096999684464909</v>
+        <v>-7.060864928621744</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3080122304935395</v>
+        <v>-0.3290777457658768</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.52150805404624</v>
+        <v>-4.427217288980129</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.018075312222548</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.727115944580464</v>
+        <v>-6.691596526970861</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2575021261301604</v>
+        <v>-0.2729379511805554</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.802822365206408</v>
+        <v>-4.713113906134901</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.752970430361536</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.480129651471302</v>
+        <v>-6.441350250454109</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3716015453958031</v>
+        <v>-0.3905461076077807</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.789625323941948</v>
+        <v>-4.708610153957347</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>1.562921083879855</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.316410404435517</v>
+        <v>-6.275352942723864</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4259738790974915</v>
+        <v>-0.4473797942437135</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.89840926825385</v>
+        <v>-4.825956464327738</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>1.457340388277809</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.037007569490241</v>
+        <v>-5.998791137495243</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3922873838857303</v>
+        <v>-0.4134838221864848</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.895594423142879</v>
+        <v>-4.820195851077378</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>1.435549290949761</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.899616943469168</v>
+        <v>-5.864935433241436</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6447724441884175</v>
+        <v>-0.6735100489260062</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.991246787704529</v>
+        <v>-4.922040874883166</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>1.493801905288501</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.669401890300256</v>
+        <v>-5.626825721458963</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5959512468916209</v>
+        <v>-0.6168596545298575</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.852455285279392</v>
+        <v>-4.789978816118674</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>1.628385498899108</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.543859798350946</v>
+        <v>-5.50536842799627</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6901896427463652</v>
+        <v>-0.7162171407957166</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.823953341992954</v>
+        <v>-4.766831624694503</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>1.828377227666383</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.528934573111377</v>
+        <v>-5.480728714048142</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7809847629537355</v>
+        <v>-0.8094605216344897</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.717722396735189</v>
+        <v>-4.665588846819436</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>2.088448743313336</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.566692774506915</v>
+        <v>-5.516483793108896</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8372685728703159</v>
+        <v>-0.8680354845483721</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.528800466729082</v>
+        <v>-4.480306577003328</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>2.394203686746247</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.804030040421726</v>
+        <v>-5.751896490505972</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7316267812404282</v>
+        <v>-0.7605869551263262</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.421757798695129</v>
+        <v>-4.367464018810491</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>2.732581458268665</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.001828551754524</v>
+        <v>-5.951095878242834</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.055805291904407</v>
+        <v>-1.090172586863938</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.256231813867187</v>
+        <v>-4.205171832784455</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>3.087679155016098</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.528610448894213</v>
+        <v>-6.480234389894036</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9686891087955621</v>
+        <v>-1.002022111830597</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.095576165696366</v>
+        <v>-4.034042342340253</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>3.440035076150065</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.99150190816628</v>
+        <v>-6.947577232132289</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.024475411204157</v>
+        <v>-1.060806551589947</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.014155134323672</v>
+        <v>-3.958604493366228</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>3.774392426709035</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.568924832697767</v>
+        <v>-7.526296294645107</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.111094086805017</v>
+        <v>-1.153251301955375</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.6217657258543</v>
+        <v>-3.552782382181245</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>4.071180065268217</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.994372305842497</v>
+        <v>-7.950984414225017</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.071935009005414</v>
+        <v>-1.119067299235628</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.41939800082974</v>
+        <v>-3.346473874001326</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>4.317085843674613</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.46587850038442</v>
+        <v>-8.422935747063558</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.260019031629651</v>
+        <v>-1.304519768988678</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.05327175186087</v>
+        <v>-2.978842010205657</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>4.501120478120929</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.408262458931862</v>
+        <v>-9.363787906178519</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.182839906377675</v>
+        <v>-1.226384905629256</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.037770465296266</v>
+        <v>-2.955891203324112</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>4.618749396157484</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.22759186306992</v>
+        <v>-10.19165349176938</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.272417442420765</v>
+        <v>-1.320034147856123</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.862228868794404</v>
+        <v>-2.782365821459874</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>4.676501032960557</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.05886144739963</v>
+        <v>-11.02695550537435</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.373843512535617</v>
+        <v>-1.432614859992125</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.490931160203052</v>
+        <v>-2.40558243797784</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>4.680927226359261</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.2682367377984</v>
+        <v>-12.24127968624728</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.455264543908311</v>
+        <v>-1.505381879186439</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.38290656945597</v>
+        <v>-2.303462475812377</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>4.639968769600212</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.14824896560786</v>
+        <v>-13.13108495658235</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.548848324620969</v>
+        <v>-1.604137119521579</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.043501710587064</v>
+        <v>-1.959946633851168</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>4.557027216148771</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.33158366565442</v>
+        <v>-14.32159423858619</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.747641850969738</v>
+        <v>-1.817790409595706</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.791933111483297</v>
+        <v>-1.714871816956898</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>4.431732551870157</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42695118290744</v>
+        <v>-15.42497424517834</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.790715527319017</v>
+        <v>-1.857316071874877</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.381764355754861</v>
+        <v>-1.298209279018966</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>4.266522190622998</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.83399406161058</v>
+        <v>-16.8446381038209</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.809607720319627</v>
+        <v>-1.883147185381603</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.069670040613795</v>
+        <v>-0.9922159770021439</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>4.060609418149226</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.51021468673961</v>
+        <v>-18.5359410618236</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.038408804781632</v>
+        <v>-2.107523071483104</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8626152711718975</v>
+        <v>-0.7873868990433396</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>3.814451102675148</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.12246632018396</v>
+        <v>-20.15066714050504</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.262706137066083</v>
+        <v>-2.332448834303958</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5654199966647158</v>
+        <v>-0.5001941439072365</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>3.528722785225125</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.94602772149378</v>
+        <v>-21.97714812534856</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.465872492563988</v>
+        <v>-2.54332655617564</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7147115259689182</v>
+        <v>-0.6648429444447835</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>3.200095184754716</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.66398660808223</v>
+        <v>-23.6999642562913</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.567665147158408</v>
+        <v>-2.645944025849089</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.5381749144510838</v>
+        <v>-0.4857795184784961</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.830446795295881</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.73609228653938</v>
+        <v>-25.7816273158229</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.752227340318221</v>
+        <v>-2.819286115473542</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.532479762714933</v>
+        <v>-0.4790107979093237</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.420360808926145</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.99735555645378</v>
+        <v>-28.05175407476115</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.622508803762399</v>
+        <v>-2.691073193744518</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6715723881054307</v>
+        <v>-0.6135080250023757</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>1.974214188555423</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.27925229564674</v>
+        <v>-30.32980167691865</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.116429020769357</v>
+        <v>-3.178159228668095</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.041181189630199</v>
+        <v>-0.9988668668457408</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>1.494898259074087</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.45756273475597</v>
+        <v>-32.51526051337945</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.177255859772016</v>
+        <v>-3.236838930004712</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.261027138948464</v>
+        <v>-1.226267074903681</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.9915615486380828</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.68453726352789</v>
+        <v>-34.73918453558925</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.54630169227459</v>
+        <v>-3.609144745914876</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.489802038804785</v>
+        <v>-1.460252711291009</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.4613488392742446</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.19092771954792</v>
+        <v>-37.24062610113511</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.794845969421918</v>
+        <v>-3.852255717382887</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.907119191884803</v>
+        <v>-1.892599828033329</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.0726550531498709</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.71860625998861</v>
+        <v>-39.77275602454199</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.689033977855088</v>
+        <v>-3.744990480200625</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.380890354818344</v>
+        <v>-2.371490081377985</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.6312758903491542</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.29450375179537</v>
+        <v>-42.33872955079472</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.875389816504217</v>
+        <v>-3.92888496591551</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.732444870724373</v>
+        <v>-2.734159962396639</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.161232721002699</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.55648709836607</v>
+        <v>-44.58085187395452</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.116667865574387</v>
+        <v>-4.163551402050608</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.332635309897621</v>
+        <v>-3.342821121508484</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.730913576118444</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.87028977958432</v>
+        <v>-46.88198120602198</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.258745536012798</v>
+        <v>-4.305707626306069</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.605086132033941</v>
+        <v>-3.617131050648328</v>
       </c>
     </row>
   </sheetData>
